--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_416__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_416__Reeval_Sobol_Modell_1.2.xlsx
@@ -6121,19 +6121,19 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.60871124267578</c:v>
+                  <c:v>87.60870361328125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.56955718994141</c:v>
+                  <c:v>32.56954956054688</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.2481689453125</c:v>
+                  <c:v>91.24814605712891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.74973297119141</c:v>
+                  <c:v>70.74974060058594</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.49144744873047</c:v>
@@ -6145,16 +6145,16 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.803238868713379</c:v>
+                  <c:v>4.80324125289917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.60387420654297</c:v>
+                  <c:v>29.60386276245117</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>112.2080383300781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.93848419189453</c:v>
+                  <c:v>15.93847560882568</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>96.66072082519531</c:v>
@@ -6172,34 +6172,34 @@
                   <c:v>96.92253875732422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.78825759887695</c:v>
+                  <c:v>26.78824806213379</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90.00750732421875</c:v>
+                  <c:v>90.00751495361328</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>97.23439788818359</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>89.74777221679688</c:v>
+                  <c:v>89.74778747558594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80.31805419921875</c:v>
+                  <c:v>80.31806182861328</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96.90335845947266</c:v>
+                  <c:v>96.90334320068359</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>83.73574066162109</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.04086303710938</c:v>
+                  <c:v>85.04084777832031</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.5202635526657104</c:v>
@@ -6223,7 +6223,7 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97.92459869384766</c:v>
+                  <c:v>97.92460632324219</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>51.14799499511719</c:v>
@@ -6235,10 +6235,10 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92.54276275634766</c:v>
+                  <c:v>92.54275512695312</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.48221588134766</c:v>
+                  <c:v>46.48220825195312</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>71.30484771728516</c:v>
@@ -6247,7 +6247,7 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.359891176223755</c:v>
+                  <c:v>3.359874248504639</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.5202635526657104</c:v>
@@ -6259,7 +6259,7 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.34362030029297</c:v>
+                  <c:v>95.34361267089844</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.5202635526657104</c:v>
@@ -6268,25 +6268,25 @@
                   <c:v>95.90552520751953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.79841423034668</c:v>
+                  <c:v>25.79839897155762</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.065908432006836</c:v>
+                  <c:v>7.065890789031982</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>76.65858459472656</c:v>
+                  <c:v>76.65857696533203</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.338516712188721</c:v>
+                  <c:v>2.338526248931885</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21.93969345092773</c:v>
+                  <c:v>21.939697265625</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>77.61869049072266</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>76.59077453613281</c:v>
+                  <c:v>76.59075927734375</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.5202635526657104</c:v>
@@ -6319,13 +6319,13 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.464732646942139</c:v>
+                  <c:v>2.464746952056885</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>52.48420715332031</c:v>
+                  <c:v>52.48418807983398</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>87.00328063964844</c:v>
+                  <c:v>87.00328826904297</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>97.433837890625</c:v>
@@ -6340,19 +6340,19 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>88.94493103027344</c:v>
+                  <c:v>88.94492340087891</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>59.66327667236328</c:v>
+                  <c:v>59.66326141357422</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>96.80962371826172</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90.82208251953125</c:v>
+                  <c:v>90.82206726074219</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>90.62313079833984</c:v>
+                  <c:v>90.62312316894531</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>96.96718597412109</c:v>
@@ -6385,7 +6385,7 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>83.11500549316406</c:v>
+                  <c:v>83.114990234375</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>95.25666809082031</c:v>
@@ -6394,19 +6394,19 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.5162471532821655</c:v>
+                  <c:v>-0.5162152647972107</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>91.25757598876953</c:v>
+                  <c:v>91.25758361816406</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>46.87761306762695</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>36.70188903808594</c:v>
+                  <c:v>36.70187759399414</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.05118560791016</c:v>
+                  <c:v>89.05117797851562</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>97.22879028320312</c:v>
@@ -6415,7 +6415,7 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.39308929443359</c:v>
+                  <c:v>94.39310455322266</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>-0.5202635526657104</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>-0.5202635526657104</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>79.61355590820312</c:v>
+                  <c:v>79.61357116699219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>87.60871124267578</v>
+        <v>87.60870361328125</v>
       </c>
       <c r="G3">
         <v>113</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.56955718994141</v>
+        <v>32.56954956054688</v>
       </c>
       <c r="G4">
         <v>113</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>91.2481689453125</v>
+        <v>91.24814605712891</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>70.74973297119141</v>
+        <v>70.74974060058594</v>
       </c>
       <c r="G7">
         <v>113</v>
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>4.803238868713379</v>
+        <v>4.80324125289917</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>29.60387420654297</v>
+        <v>29.60386276245117</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15.93848419189453</v>
+        <v>15.93847560882568</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>26.78825759887695</v>
+        <v>26.78824806213379</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>90.00750732421875</v>
+        <v>90.00751495361328</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>89.74777221679688</v>
+        <v>89.74778747558594</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>80.31805419921875</v>
+        <v>80.31806182861328</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>96.90335845947266</v>
+        <v>96.90334320068359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>85.04086303710938</v>
+        <v>85.04084777832031</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>98.208</v>
       </c>
       <c r="F37">
-        <v>97.92459869384766</v>
+        <v>97.92460632324219</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>81.7872</v>
       </c>
       <c r="F41">
-        <v>92.54276275634766</v>
+        <v>92.54275512695312</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>46.48221588134766</v>
+        <v>46.48220825195312</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>3.359891176223755</v>
+        <v>3.359874248504639</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>89.79689999999999</v>
       </c>
       <c r="F49">
-        <v>95.34362030029297</v>
+        <v>95.34361267089844</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>25.79841423034668</v>
+        <v>25.79839897155762</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>7.065908432006836</v>
+        <v>7.065890789031982</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>76.65858459472656</v>
+        <v>76.65857696533203</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.338516712188721</v>
+        <v>2.338526248931885</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>21.93969345092773</v>
+        <v>21.939697265625</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>76.59077453613281</v>
+        <v>76.59075927734375</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2.464732646942139</v>
+        <v>2.464746952056885</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>52.48420715332031</v>
+        <v>52.48418807983398</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>87.00328063964844</v>
+        <v>87.00328826904297</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>88.94493103027344</v>
+        <v>88.94492340087891</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>59.66327667236328</v>
+        <v>59.66326141357422</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>90.82208251953125</v>
+        <v>90.82206726074219</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>90.62313079833984</v>
+        <v>90.62312316894531</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>83.11500549316406</v>
+        <v>83.114990234375</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>-0.5162471532821655</v>
+        <v>-0.5162152647972107</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>91.25757598876953</v>
+        <v>91.25758361816406</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>36.70188903808594</v>
+        <v>36.70187759399414</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>89.05118560791016</v>
+        <v>89.05117797851562</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>94.39308929443359</v>
+        <v>94.39310455322266</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>79.61355590820312</v>
+        <v>79.61357116699219</v>
       </c>
     </row>
     <row r="105" spans="1:6">
